--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/3_Afyonkarahisar_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/3_Afyonkarahisar_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C3D45FF-9C7C-4C28-95F8-958B0858BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C72C5A9-E193-485A-83B7-A7C9B3D6B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{C3BA78D1-BD69-4D5B-AD41-CC0292DE187F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{363715C7-A431-4BE6-88B3-B4060FE70BED}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -925,18 +925,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{C34881A5-E903-408B-856F-2F04D4A60334}"/>
+    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{1AB28294-2958-40EE-A329-7563E606E7AB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{2CEAE4D0-1EF2-40C7-A774-0C105654944A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C85D08E6-3A68-46D9-959F-8A1BEFEA8B01}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7972F554-640D-467E-80FF-19869AF0ADEF}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{97820FC1-5E2C-475A-AD41-9B1E6806DD50}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{64BE7AC3-604D-40F3-991C-E5BE8088D87B}"/>
-    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{C1563430-4F4E-4ED1-BB3F-E5D49B4D2CF3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{5573F289-AE63-4F66-B2F1-E7B3D492BE69}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{8884D41D-BDB3-482E-B7CC-2203230632E7}"/>
-    <cellStyle name="Not 2" xfId="10" xr:uid="{B978B273-5730-4E1A-B2AD-BF6643AFCC39}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{87431920-CEDA-4870-B338-1D0932E873A5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9298E843-F1DF-43F1-B3F7-DE2654C7C5A6}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3799C998-AE5A-4F35-867F-4FA7EE741B94}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5682F8D8-E287-40A4-9D9D-804DE33E3E3A}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{FCF811F4-01D5-48E0-81DA-0355EA69FC5E}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{0D8043D8-09A7-49C0-9233-92A550FF928B}"/>
+    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{4C0FFBA3-C7AF-40D3-A12A-4231972169D9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{3BAD16B2-DADC-4D48-92B7-58A20F06C84D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{D731BED4-BDD3-4F4C-BBD7-8A98F3868129}"/>
+    <cellStyle name="Not 2" xfId="10" xr:uid="{C690E7D2-C13F-4F99-92B0-F395B3DE4FBE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{F8B0390D-3A8F-4A2B-A03F-D2C7C35D72E1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689A2272-51B0-4A6B-95A8-52E520DDF217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD95551-F13D-4325-A1CA-6606B1129299}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2610,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7F7BC4-22FB-4810-B08E-4AD4014B443C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1414B074-13A1-4A7E-9235-9E7951BB97CD}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3905,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7ECE30-74D1-4C20-AA97-8E4786936550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFB822B-7426-4611-985E-403309971041}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5194,7 +5194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91A227E-9104-4296-AA38-13B0DB041E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793EE3A7-C179-4E9F-825F-30F2AC5A22C5}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6469,7 +6469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E7AF8-9905-4B35-B332-E69379D8DFF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C336FD30-9F00-4CD2-AE51-7C21916A3EB1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7773,7 +7773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E1DC62-7A35-4A52-8EE0-B2589579D4D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2F1DD5-7F00-4DCC-9625-633511A87A01}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -9078,7 +9078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DDC41F-FBB6-468F-9F0F-1656622B3126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289FD1AB-4E10-40EA-B578-158355877058}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -10379,7 +10379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BA931F-D8CD-41B5-BD0F-57756F67E7D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520A8EA-4869-4F5E-A3A9-A3CD022C01D6}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -11682,7 +11682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74B6C98-36E1-4829-B432-D22C0CD6BCF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B4997A-A7AD-4525-ACAF-05B13854F45C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -12979,7 +12979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59F1D85-147A-4253-BF0B-DA483C7CE3DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F1DE9C-4093-46C2-85EA-0DC3247E705E}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -14274,7 +14274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0A1F0B-40BA-4F49-A3FD-D307E56EBB66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAE2012-219A-41D7-8A54-1C01CCA1D334}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15567,7 +15567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFAE086-0761-45B0-8901-CA1AF5AF5C9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A374EC6-6679-472A-9794-91D2E49C8F30}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
